--- a/others/量化投资/THS/自动化交易_同花顺/data/策略最新持仓_所有.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略最新持仓_所有.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,17 +511,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30.18%</t>
+          <t>30.00%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.45%</t>
+          <t>-3.90%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-01-09 15:50:00</t>
+          <t>2025-01-10 15:53:00</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30.13%</t>
+          <t>30.54%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>-0.80%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-01-09 15:50:00</t>
+          <t>2025-01-10 15:53:00</t>
         </is>
       </c>
     </row>
@@ -601,34 +601,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31.24%</t>
+          <t>30.84%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>-2.81%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-01-09 15:50:00</t>
+          <t>2025-01-10 15:53:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>高现金毛利战法</t>
+          <t>TMT资金流入战法</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>国光股份</t>
+          <t>粤传媒</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>002749</t>
+          <t>002181</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -638,42 +638,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>文化传媒</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>14.003</v>
+        <v>5.761</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.41%</t>
+          <t>29.18%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-5.58%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-01-09 15:45:00</t>
+          <t>2025-01-10 16:09:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>高现金毛利战法</t>
+          <t>TMT资金流入战法</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>凌霄泵业</t>
+          <t>岩山科技</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>002884</t>
+          <t>002195</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -683,87 +683,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>IT服务</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18.015</v>
+        <v>3.841</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22.48%</t>
+          <t>31.88%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>3.10%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-01-09 15:45:00</t>
+          <t>2025-01-10 16:09:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>高现金毛利战法</t>
+          <t>TMT资金流入战法</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>太辰光</t>
+          <t>四川长虹</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>300570</t>
+          <t>600839</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>通信设备</t>
+          <t>黑色家电</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>14.448</v>
+        <v>8.981999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>71.54%</t>
+          <t>30.20%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>566.79%</t>
+          <t>-5.15%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-01-09 15:45:00</t>
+          <t>2025-01-10 16:09:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TMT资金流入战法</t>
+          <t>中字头概念</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>粤传媒</t>
+          <t>中远海特</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>600428</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -773,42 +773,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>港口航运</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.761</v>
+        <v>6.234</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30.46%</t>
+          <t>41.89%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>5.56%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-01-09 16:04:00</t>
+          <t>2025-01-10 16:10:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TMT资金流入战法</t>
+          <t>中字头概念</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>中铁工业</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>002195</t>
+          <t>600528</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -818,42 +818,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IT服务</t>
+          <t>轨交设备</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.841</v>
+        <v>7.27</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30.33%</t>
+          <t>13.85%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>0.83%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-01-09 16:04:00</t>
+          <t>2025-01-10 16:10:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TMT资金流入战法</t>
+          <t>中字头概念</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>四川长虹</t>
+          <t>中国海油</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>600839</t>
+          <t>600938</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -863,430 +863,295 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>黑色家电</t>
+          <t>油气开采及服务</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.981999999999999</v>
+        <v>17.46</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30.73%</t>
+          <t>35.62%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0.58%</t>
+          <t>61.79%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-01-09 16:04:00</t>
+          <t>2025-01-10 16:10:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>中字头概念</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中远海特</t>
+          <t>孩子王</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>600428</t>
+          <t>301078</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>沪深A股</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>港口航运</t>
+          <t>零售</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.234</v>
+        <v>11.083</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>41.96%</t>
+          <t>29.11%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.00%</t>
+          <t>-0.48%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-01-09 16:04:00</t>
+          <t>1736731860000</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>中字头概念</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中铁工业</t>
+          <t>同花顺</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>600528</t>
+          <t>300033</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>沪深A股</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>软件开发</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.27</v>
+        <v>246.702</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13.89%</t>
+          <t>29.33%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>-0.02%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-01-09 16:04:00</t>
+          <t>1736731860000</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>中字头概念</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中国海油</t>
+          <t>东方财富</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>600938</t>
+          <t>300059</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>沪深A股</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>油气开采及服务</t>
+          <t>证券</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17.46</v>
+        <v>10.663</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>35.61%</t>
+          <t>34.82%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>63.68%</t>
+          <t>101.24%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-01-09 16:04:00</t>
+          <t>1736731860000</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小盘股战法</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>锐捷网络</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>301165</t>
+          <t>002188</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>通信设备</t>
+          <t>房地产</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>67.197</v>
+        <v>4.971</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29.30%</t>
+          <t>35.99%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.09%</t>
+          <t>-18.33%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-01-10 09:31:00</t>
+          <t>2025-01-10 15:54:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小盘股战法</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>东方财富</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>300059</t>
+          <t>002494</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>证券</t>
+          <t>服装家纺</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10.663</v>
+        <v>3.961</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>34.63%</t>
+          <t>27.56%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110.90%</t>
+          <t>0.73%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-01-10 09:31:00</t>
+          <t>2025-01-10 15:54:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>低价小盘股战法</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>凡拓数创</t>
+          <t>廊坊发展</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>301313</t>
+          <t>600149</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>电力</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>23.556</v>
+        <v>4.661</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5.01%</t>
+          <t>32.36%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>-17.19%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-01-10 09:31:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>低价小盘股战法</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>002188</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4.971</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>36.72%</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-14.51%</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-01-09 15:51:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>低价小盘股战法</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>26.86%</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.73%</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2025-01-09 15:51:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>低价小盘股战法</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>廊坊发展</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>600149</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>电力</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4.661</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>32.43%</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>-14.83%</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2025-01-09 15:51:00</t>
+          <t>2025-01-10 15:54:00</t>
         </is>
       </c>
     </row>
